--- a/Estimates.CSV (Challenges).xlsx
+++ b/Estimates.CSV (Challenges).xlsx
@@ -440,10 +440,10 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
@@ -512,6 +512,9 @@
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E4" s="1" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -526,6 +529,9 @@
       <c r="D5" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="E5" s="1" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -540,6 +546,9 @@
       <c r="D6" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E6" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -596,6 +605,9 @@
       <c r="D10" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -610,6 +622,9 @@
       <c r="D11" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="E11" s="1" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -665,6 +680,9 @@
       </c>
       <c r="D15" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Estimates.CSV (Challenges).xlsx
+++ b/Estimates.CSV (Challenges).xlsx
@@ -440,10 +440,10 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
@@ -563,6 +563,9 @@
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -577,6 +580,9 @@
       <c r="D8" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -590,6 +596,9 @@
       </c>
       <c r="D9" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Estimates.CSV (Challenges).xlsx
+++ b/Estimates.CSV (Challenges).xlsx
@@ -440,15 +440,15 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="14:14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.85"/>
   </cols>
   <sheetData>
@@ -648,6 +648,9 @@
       <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E12" s="1" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -662,6 +665,9 @@
       <c r="D13" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E13" s="1" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -719,6 +725,9 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Estimates.CSV (Challenges).xlsx
+++ b/Estimates.CSV (Challenges).xlsx
@@ -440,10 +440,10 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="14:14"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
@@ -680,6 +680,9 @@
         <v>0.5</v>
       </c>
       <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Estimates.CSV (Challenges).xlsx
+++ b/Estimates.CSV (Challenges).xlsx
@@ -440,10 +440,10 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
@@ -715,6 +715,9 @@
       </c>
       <c r="D16" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Estimates.CSV (Challenges).xlsx
+++ b/Estimates.CSV (Challenges).xlsx
@@ -439,11 +439,11 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
@@ -780,7 +780,9 @@
       <c r="D21" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -796,6 +798,9 @@
       <c r="D22" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E22" s="1" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -810,6 +815,9 @@
       <c r="D23" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -824,6 +832,9 @@
       <c r="D24" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -838,6 +849,9 @@
       <c r="D25" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -852,6 +866,9 @@
       <c r="D26" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -866,6 +883,9 @@
       <c r="D27" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E27" s="1" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -879,6 +899,9 @@
       </c>
       <c r="D28" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Estimates.CSV (Challenges).xlsx
+++ b/Estimates.CSV (Challenges).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Story</t>
   </si>
@@ -193,25 +193,10 @@
     <t xml:space="preserve">Task description from AI suggestion</t>
   </si>
   <si>
-    <t xml:space="preserve">For Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User List page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User create, edit, and delete UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User create, edit, and delete api call</t>
+    <t xml:space="preserve">Docker file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment</t>
   </si>
 </sst>
 </file>
@@ -440,10 +425,10 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
@@ -905,9 +890,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -915,45 +898,29 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="C32" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Estimates.CSV (Challenges).xlsx
+++ b/Estimates.CSV (Challenges).xlsx
@@ -425,10 +425,10 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
@@ -911,6 +911,9 @@
       <c r="D31" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E31" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="6" t="s">
@@ -921,6 +924,9 @@
       </c>
       <c r="D32" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
